--- a/3a.1.PlasticsAndCompositesEngineering/8_FinalTerm/1_FinalExam/Problem2.xlsx
+++ b/3a.1.PlasticsAndCompositesEngineering/8_FinalTerm/1_FinalExam/Problem2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a203f8e87724c02b/Documents/Polymers and composites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{2DE7A379-DEAC-46DA-8623-B2A18958D9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2161908B-4528-4704-8738-7514AE55E1D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEACCF-1AA1-433F-BCD3-81B8C95DA5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCD01163-F2B1-43B3-8E1B-80692A584FB0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{CCD01163-F2B1-43B3-8E1B-80692A584FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Pv</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Apparent shear rate</t>
   </si>
@@ -246,6 +243,24 @@
   </si>
   <si>
     <t>El bueno</t>
+  </si>
+  <si>
+    <t>m3/s</t>
+  </si>
+  <si>
+    <t>g/cm3</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Price KWH</t>
+  </si>
+  <si>
+    <t>Energy consumption</t>
   </si>
 </sst>
 </file>
@@ -297,18 +312,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -337,7 +346,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,7 +377,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>508140</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>200569</xdr:rowOff>
+      <xdr:rowOff>196759</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -537,7 +546,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -833,38 +842,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BA3ECA-C1AB-4053-BA87-9853624F0B2B}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26171875" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" customWidth="1"/>
+    <col min="3" max="3" width="21.26171875" customWidth="1"/>
+    <col min="5" max="6" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.41796875" customWidth="1"/>
+    <col min="16" max="17" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -881,7 +890,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
@@ -906,14 +915,14 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
         <f>(0.00127^2)*PI()</f>
         <v>5.0670747909749785E-6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -932,7 +941,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
@@ -955,7 +964,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -976,13 +985,13 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1001,7 +1010,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1022,7 +1031,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <f>A3*0.03175</f>
         <v>1.6087962461345557E-7</v>
@@ -1049,7 +1058,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1070,13 +1079,11 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>0</v>
-      </c>
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1095,11 +1102,8 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <f>(C8/A3)</f>
-        <v>3.175E-2</v>
-      </c>
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A11" s="5"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2">
         <f>(4*C8)/((0.00127^3)*PI())</f>
@@ -1122,8 +1126,8 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A12" s="5"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1143,17 +1147,17 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1170,13 +1174,13 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="2">
         <f>F18*((C11/G18)^(H18-1))</f>
         <v>425.91879236031338</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f>((8*E2*(C11^H18))/(PI()*C2^4))*C8/1000000</f>
         <v>6707.372946261472</v>
       </c>
@@ -1184,7 +1188,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1199,10 +1203,10 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1223,10 +1227,10 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1244,24 +1248,24 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1275,15 +1279,15 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f>C14/500</f>
         <v>13.414745892522944</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2">
         <v>2.5</v>
@@ -1309,7 +1313,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1330,13 +1334,13 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.8">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1355,7 +1359,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A21" s="2">
         <f>C21/A14</f>
         <v>100</v>
@@ -1382,10 +1386,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1403,11 +1404,20 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+    <row r="23" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A23">
+        <v>0.75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <f>A23*10000/1000</f>
+        <v>7.5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1424,6 +1434,40 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
+    <row r="24" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A24" s="2">
+        <f>C8</f>
+        <v>1.6087962461345557E-7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <f>A24*C23</f>
+        <v>1.2065971846009169E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <f>A24*500*C18*1000000*8*5*4/1000</f>
+        <v>172.65274267791889</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <f>2.94*A26</f>
+        <v>507.59906347308151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
